--- a/src/examples/inputDir/file4.xlsx
+++ b/src/examples/inputDir/file4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="27950" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>geoffwo</t>
+  </si>
   <si>
     <t>这是一个excel</t>
+  </si>
+  <si>
+    <t>插件</t>
+  </si>
+  <si>
+    <t>xlsx读取</t>
   </si>
 </sst>
 </file>
@@ -962,17 +980,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="24.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>geoffwo这是一个excel</v>
       </c>
     </row>
   </sheetData>
@@ -985,14 +1024,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
